--- a/URS/DbLayouts/L8-遵循法令作業/JcicZ442.xlsx
+++ b/URS/DbLayouts/L8-遵循法令作業/JcicZ442.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24131"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="X:\SKL\DB\GenTables\L8-遵循法令作業\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\SKL\DB\GenTables\L8-遵循法令作業\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64BD7F04-0C8A-46E0-A24C-DC7E5FB5BCCE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19404" windowHeight="6816" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="DBD" sheetId="4" r:id="rId1"/>
@@ -400,22 +399,13 @@
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
-    <t>CustIdEq</t>
-  </si>
-  <si>
     <t>CustId=</t>
   </si>
   <si>
     <t>CustId ASC , ApplyDate DESC</t>
   </si>
   <si>
-    <t>RcDateEq</t>
-  </si>
-  <si>
     <t>ApplyDate=</t>
-  </si>
-  <si>
-    <t>CustRcEq</t>
   </si>
   <si>
     <t>CustId= , AND ApplyDate=</t>
@@ -540,12 +530,24 @@
   <si>
     <t>SubmitKey= , AND CustId= , AND ApplyDate= , AND CourtCode= , AND MaxMainCode=</t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>custIdEq</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>rcDateEq</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>custRcEq</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -772,7 +774,7 @@
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
-    <cellStyle name="一般 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="一般 2" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -863,23 +865,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -915,23 +900,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1107,7 +1075,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K131"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
@@ -1158,10 +1126,10 @@
       </c>
       <c r="B3" s="20"/>
       <c r="C3" s="14" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="D3" s="13" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
@@ -1185,7 +1153,7 @@
       </c>
       <c r="B5" s="20"/>
       <c r="C5" s="14" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="D5" s="13"/>
       <c r="E5" s="11"/>
@@ -1224,7 +1192,7 @@
       </c>
       <c r="B8" s="20"/>
       <c r="C8" s="14" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="D8" s="13"/>
       <c r="E8" s="11"/>
@@ -1237,7 +1205,7 @@
       </c>
       <c r="B9" s="20"/>
       <c r="C9" s="16" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="D9" s="13"/>
       <c r="E9" s="11"/>
@@ -1272,7 +1240,7 @@
         <v>1</v>
       </c>
       <c r="B11" s="14" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="C11" s="16" t="s">
         <v>19</v>
@@ -1312,20 +1280,20 @@
         <v>3</v>
       </c>
       <c r="B13" s="14" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="C13" s="16" t="s">
         <v>22</v>
       </c>
       <c r="D13" s="14" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="E13" s="15">
         <v>3</v>
       </c>
       <c r="F13" s="14"/>
       <c r="G13" s="14" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.3">
@@ -1336,7 +1304,7 @@
         <v>34</v>
       </c>
       <c r="C14" s="16" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="D14" s="14" t="s">
         <v>33</v>
@@ -1352,20 +1320,20 @@
         <v>5</v>
       </c>
       <c r="B15" s="14" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="C15" s="16" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="D15" s="14" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="E15" s="15">
         <v>3</v>
       </c>
       <c r="F15" s="14"/>
       <c r="G15" s="14" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.3">
@@ -1373,20 +1341,20 @@
         <v>6</v>
       </c>
       <c r="B16" s="14" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="C16" s="16" t="s">
         <v>63</v>
       </c>
       <c r="D16" s="14" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="E16" s="15">
         <v>3</v>
       </c>
       <c r="F16" s="14"/>
       <c r="G16" s="14" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
@@ -1394,7 +1362,7 @@
         <v>7</v>
       </c>
       <c r="B17" s="14" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="C17" s="16" t="s">
         <v>62</v>
@@ -1407,7 +1375,7 @@
       </c>
       <c r="F17" s="14"/>
       <c r="G17" s="14" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.3">
@@ -1428,7 +1396,7 @@
       </c>
       <c r="F18" s="14"/>
       <c r="G18" s="14" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.3">
@@ -1436,7 +1404,7 @@
         <v>9</v>
       </c>
       <c r="B19" s="14" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="C19" s="16" t="s">
         <v>64</v>
@@ -1474,7 +1442,7 @@
         <v>11</v>
       </c>
       <c r="B21" s="14" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="C21" s="16" t="s">
         <v>49</v>
@@ -1493,7 +1461,7 @@
         <v>12</v>
       </c>
       <c r="B22" s="14" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="C22" s="16" t="s">
         <v>50</v>
@@ -1512,7 +1480,7 @@
         <v>13</v>
       </c>
       <c r="B23" s="14" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="C23" s="16" t="s">
         <v>66</v>
@@ -1531,7 +1499,7 @@
         <v>14</v>
       </c>
       <c r="B24" s="14" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="C24" s="16" t="s">
         <v>67</v>
@@ -1550,7 +1518,7 @@
         <v>15</v>
       </c>
       <c r="B25" s="14" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="C25" s="16" t="s">
         <v>68</v>
@@ -1588,7 +1556,7 @@
         <v>17</v>
       </c>
       <c r="B27" s="14" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="C27" s="16" t="s">
         <v>69</v>
@@ -1607,7 +1575,7 @@
         <v>18</v>
       </c>
       <c r="B28" s="14" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="C28" s="16" t="s">
         <v>70</v>
@@ -1626,7 +1594,7 @@
         <v>19</v>
       </c>
       <c r="B29" s="14" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="C29" s="16" t="s">
         <v>52</v>
@@ -1854,10 +1822,10 @@
         <v>31</v>
       </c>
       <c r="B41" s="14" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="C41" s="16" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="D41" s="14" t="s">
         <v>20</v>
@@ -2457,12 +2425,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B7" sqref="B7"/>
+      <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
@@ -2486,65 +2454,65 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="C2" s="1" t="s">
         <v>82</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>84</v>
+        <v>116</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>86</v>
+        <v>117</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="B7" s="1" t="s">
-        <v>117</v>
-      </c>
       <c r="C7" s="1" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
     </row>
   </sheetData>
